--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.1882</v>
+        <v>-13.0427</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.37659999999999</v>
+        <v>-21.39289999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.10029999999999</v>
+        <v>-12.08909999999999</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.87149999999998</v>
+        <v>-21.8035</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.804</v>
+        <v>-13.6107</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.6386</v>
+        <v>-21.515</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.015</v>
+        <v>-12.8049</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.90150000000001</v>
+        <v>-12.16160000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.9763</v>
+        <v>-19.9274</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.69859999999998</v>
+        <v>-19.50389999999998</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.4157</v>
+        <v>-12.5894</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.87870000000001</v>
+        <v>-21.89120000000002</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-14.0772</v>
+        <v>-13.6343</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.93379999999998</v>
+        <v>-21.75319999999998</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.6138</v>
+        <v>-12.8655</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.15570000000001</v>
+        <v>-22.2644</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.9677</v>
+        <v>-22.05260000000003</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.54959999999997</v>
+        <v>-21.43979999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66049999999997</v>
+        <v>-21.73239999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.7874</v>
+        <v>-21.8478</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.4846</v>
+        <v>-13.2212</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.68860000000001</v>
+        <v>-13.09890000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.55899999999998</v>
+        <v>-21.54699999999998</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.88530000000001</v>
+        <v>-21.90640000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.24219999999998</v>
+        <v>-20.54249999999997</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.42750000000001</v>
+        <v>-21.36330000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.8498</v>
+        <v>-11.87510000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.69699999999999</v>
+        <v>-21.7894</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.098</v>
+        <v>-12.5886</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.9259</v>
+        <v>-12.813</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.3478</v>
+        <v>-21.50629999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
